--- a/Upgrade/app/uploads/29_Цели на год.xlsx
+++ b/Upgrade/app/uploads/29_Цели на год.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564DF82E-AA77-4B0B-8F5B-B35C2E33F895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B6807-6CC0-4186-BDD1-CFCAAFE37F13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="179" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,7 +588,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -746,6 +746,51 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="3" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,42 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="3" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="3">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1543,8 +1552,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:CK435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,78 +1642,78 @@
     </row>
     <row r="9" spans="2:89" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:89" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56" t="s">
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56" t="s">
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56" t="s">
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="57" t="s">
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57" t="s">
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57" t="s">
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="58" t="s">
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="58" t="s">
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="73"/>
+      <c r="AL10" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="58" t="s">
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="73"/>
+      <c r="AP10" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="58"/>
-      <c r="AS10" s="58"/>
-      <c r="AT10" s="55" t="s">
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="73"/>
+      <c r="AT10" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="AU10" s="55"/>
-      <c r="AV10" s="55"/>
-      <c r="AW10" s="55"/>
+      <c r="AU10" s="70"/>
+      <c r="AV10" s="70"/>
+      <c r="AW10" s="70"/>
     </row>
     <row r="11" spans="2:89" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
@@ -2011,56 +2020,56 @@
       <c r="E13" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60" t="s">
+      <c r="G13" s="68"/>
+      <c r="H13" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="65" t="s">
+      <c r="I13" s="68"/>
+      <c r="J13" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="64"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="64" t="s">
         <v>84</v>
       </c>
       <c r="Q13" s="64"/>
-      <c r="R13" s="65" t="s">
+      <c r="R13" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="S13" s="67"/>
-      <c r="T13" s="61" t="s">
+      <c r="S13" s="63"/>
+      <c r="T13" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="U13" s="61"/>
-      <c r="V13" s="69" t="s">
+      <c r="U13" s="58"/>
+      <c r="V13" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="W13" s="70"/>
-      <c r="X13" s="64" t="s">
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="69" t="s">
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="64" t="s">
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
+      <c r="AG13" s="63"/>
       <c r="AH13" s="22"/>
       <c r="AI13" s="22"/>
       <c r="AJ13" s="22"/>
@@ -2120,10 +2129,10 @@
     </row>
     <row r="14" spans="2:89" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="59"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="45" t="s">
         <v>60</v>
       </c>
@@ -2133,7 +2142,7 @@
       <c r="G14" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="55" t="s">
         <v>64</v>
       </c>
       <c r="J14" s="46" t="s">
@@ -2148,40 +2157,40 @@
       <c r="M14" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="61" t="s">
+      <c r="N14" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="61"/>
-      <c r="P14" s="62" t="s">
+      <c r="O14" s="58"/>
+      <c r="P14" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="62" t="s">
+      <c r="Q14" s="61"/>
+      <c r="R14" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="S14" s="63"/>
+      <c r="S14" s="61"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="62" t="s">
+      <c r="V14" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="62" t="s">
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="68"/>
-      <c r="AK14" s="63"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="61"/>
       <c r="AL14" s="22"/>
       <c r="AM14" s="22"/>
       <c r="AN14" s="22"/>
@@ -2342,10 +2351,10 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="61" t="s">
+      <c r="P16" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="Q16" s="61"/>
+      <c r="Q16" s="58"/>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -39608,25 +39617,7 @@
       <c r="CB435" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="V14:AG14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="J13:M13"/>
+  <mergeCells count="29">
     <mergeCell ref="AT10:AW10"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:I10"/>
@@ -39639,6 +39630,23 @@
     <mergeCell ref="AH10:AK10"/>
     <mergeCell ref="AL10:AO10"/>
     <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="V14:AG14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="V13:Y13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
